--- a/data/2024/fid/FID-NORD-DE-8.xlsx
+++ b/data/2024/fid/FID-NORD-DE-8.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3500" uniqueCount="895">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3500" uniqueCount="896">
   <si>
     <t>ZDBDID</t>
   </si>
@@ -307,6 +307,12 @@
     <t>http://library.pressdisplay.com/pressdisplay/viewer.aspx?newspaper=aftenposten&amp;cid=3106;http://www.bibliothek.uni-regensburg.de/ezeit/?2416473</t>
   </si>
   <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>DE-18</t>
+  </si>
+  <si>
     <t>2419921-7</t>
   </si>
   <si>
@@ -401,9 +407,6 @@
   </si>
   <si>
     <t>1.2007 -</t>
-  </si>
-  <si>
-    <t>1</t>
   </si>
   <si>
     <t>DE-6</t>
@@ -3723,15 +3726,15 @@
         <v>32</v>
       </c>
       <c r="X9" t="s">
-        <v>39</v>
+        <v>97</v>
       </c>
       <c r="Y9" t="s">
-        <v>32</v>
+        <v>98</v>
       </c>
     </row>
     <row r="10" spans="1:25">
       <c r="A10" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B10" t="s">
         <v>83</v>
@@ -3740,22 +3743,22 @@
         <v>84</v>
       </c>
       <c r="D10" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E10" t="s">
         <v>29</v>
       </c>
       <c r="F10" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="G10" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="H10" t="s">
         <v>32</v>
       </c>
       <c r="I10" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="J10" t="s">
         <v>94</v>
@@ -3782,10 +3785,10 @@
         <v>32</v>
       </c>
       <c r="R10" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="S10" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="T10" t="s">
         <v>32</v>
@@ -3808,7 +3811,7 @@
     </row>
     <row r="11" spans="1:25">
       <c r="A11" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B11" t="s">
         <v>26</v>
@@ -3817,25 +3820,25 @@
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E11" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F11" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="G11" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="H11" t="s">
         <v>32</v>
       </c>
       <c r="I11" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="J11" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="K11" t="s">
         <v>35</v>
@@ -3859,7 +3862,7 @@
         <v>32</v>
       </c>
       <c r="R11" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="S11" t="s">
         <v>32</v>
@@ -3885,7 +3888,7 @@
     </row>
     <row r="12" spans="1:25">
       <c r="A12" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -3894,25 +3897,25 @@
         <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E12" t="s">
         <v>29</v>
       </c>
       <c r="F12" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="G12" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="H12" t="s">
         <v>32</v>
       </c>
       <c r="I12" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="J12" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="K12" t="s">
         <v>35</v>
@@ -3936,7 +3939,7 @@
         <v>32</v>
       </c>
       <c r="R12" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="S12" t="s">
         <v>32</v>
@@ -3962,7 +3965,7 @@
     </row>
     <row r="13" spans="1:25">
       <c r="A13" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B13" t="s">
         <v>26</v>
@@ -3971,25 +3974,25 @@
         <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E13" t="s">
         <v>29</v>
       </c>
       <c r="F13" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="G13" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="H13" t="s">
         <v>32</v>
       </c>
       <c r="I13" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="J13" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="K13" t="s">
         <v>35</v>
@@ -4013,7 +4016,7 @@
         <v>32</v>
       </c>
       <c r="R13" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="S13" t="s">
         <v>32</v>
@@ -4039,7 +4042,7 @@
     </row>
     <row r="14" spans="1:25">
       <c r="A14" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B14" t="s">
         <v>26</v>
@@ -4048,25 +4051,25 @@
         <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E14" t="s">
         <v>29</v>
       </c>
       <c r="F14" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="G14" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="H14" t="s">
         <v>32</v>
       </c>
       <c r="I14" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="J14" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="K14" t="s">
         <v>35</v>
@@ -4090,7 +4093,7 @@
         <v>32</v>
       </c>
       <c r="R14" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="S14" t="s">
         <v>32</v>
@@ -4108,15 +4111,15 @@
         <v>32</v>
       </c>
       <c r="X14" t="s">
-        <v>129</v>
+        <v>97</v>
       </c>
       <c r="Y14" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="15" spans="1:25">
       <c r="A15" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B15" t="s">
         <v>83</v>
@@ -4125,10 +4128,10 @@
         <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E15" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F15" t="s">
         <v>43</v>
@@ -4140,7 +4143,7 @@
         <v>32</v>
       </c>
       <c r="I15" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="J15" t="s">
         <v>69</v>
@@ -4167,13 +4170,13 @@
         <v>32</v>
       </c>
       <c r="R15" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="S15" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="T15" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="U15" t="s">
         <v>37</v>
@@ -4185,15 +4188,15 @@
         <v>32</v>
       </c>
       <c r="X15" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Y15" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="16" spans="1:25">
       <c r="A16" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B16" t="s">
         <v>83</v>
@@ -4202,13 +4205,13 @@
         <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E16" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F16" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="G16" t="s">
         <v>31</v>
@@ -4217,13 +4220,13 @@
         <v>32</v>
       </c>
       <c r="I16" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="J16" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K16" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="L16" t="s">
         <v>32</v>
@@ -4244,10 +4247,10 @@
         <v>32</v>
       </c>
       <c r="R16" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="S16" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="T16" t="s">
         <v>32</v>
@@ -4262,15 +4265,15 @@
         <v>32</v>
       </c>
       <c r="X16" t="s">
-        <v>129</v>
+        <v>97</v>
       </c>
       <c r="Y16" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="17" spans="1:25">
       <c r="A17" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B17" t="s">
         <v>83</v>
@@ -4279,10 +4282,10 @@
         <v>27</v>
       </c>
       <c r="D17" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E17" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="F17" t="s">
         <v>43</v>
@@ -4294,10 +4297,10 @@
         <v>32</v>
       </c>
       <c r="I17" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="J17" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="K17" t="s">
         <v>35</v>
@@ -4321,13 +4324,13 @@
         <v>32</v>
       </c>
       <c r="R17" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="S17" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="T17" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="U17" t="s">
         <v>37</v>
@@ -4339,15 +4342,15 @@
         <v>32</v>
       </c>
       <c r="X17" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Y17" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="18" spans="1:25">
       <c r="A18" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B18" t="s">
         <v>83</v>
@@ -4356,10 +4359,10 @@
         <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="E18" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="F18" t="s">
         <v>43</v>
@@ -4371,13 +4374,13 @@
         <v>32</v>
       </c>
       <c r="I18" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="J18" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="K18" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="L18" t="s">
         <v>32</v>
@@ -4392,16 +4395,16 @@
         <v>32</v>
       </c>
       <c r="P18" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Q18" t="s">
         <v>32</v>
       </c>
       <c r="R18" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="S18" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="T18" t="s">
         <v>32</v>
@@ -4424,7 +4427,7 @@
     </row>
     <row r="19" spans="1:25">
       <c r="A19" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B19" t="s">
         <v>83</v>
@@ -4433,16 +4436,16 @@
         <v>27</v>
       </c>
       <c r="D19" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="E19" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="F19" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="G19" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="H19" t="s">
         <v>32</v>
@@ -4454,7 +4457,7 @@
         <v>32</v>
       </c>
       <c r="K19" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="L19" t="s">
         <v>32</v>
@@ -4475,10 +4478,10 @@
         <v>32</v>
       </c>
       <c r="R19" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="S19" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="T19" t="s">
         <v>32</v>
@@ -4501,7 +4504,7 @@
     </row>
     <row r="20" spans="1:25">
       <c r="A20" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B20" t="s">
         <v>26</v>
@@ -4510,13 +4513,13 @@
         <v>27</v>
       </c>
       <c r="D20" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="E20" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="F20" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="G20" t="s">
         <v>52</v>
@@ -4528,7 +4531,7 @@
         <v>32</v>
       </c>
       <c r="J20" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="K20" t="s">
         <v>35</v>
@@ -4552,7 +4555,7 @@
         <v>32</v>
       </c>
       <c r="R20" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="S20" t="s">
         <v>32</v>
@@ -4578,7 +4581,7 @@
     </row>
     <row r="21" spans="1:25">
       <c r="A21" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B21" t="s">
         <v>83</v>
@@ -4587,7 +4590,7 @@
         <v>27</v>
       </c>
       <c r="D21" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="E21" t="s">
         <v>29</v>
@@ -4596,16 +4599,16 @@
         <v>43</v>
       </c>
       <c r="G21" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="H21" t="s">
         <v>32</v>
       </c>
       <c r="I21" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="J21" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="K21" t="s">
         <v>35</v>
@@ -4629,13 +4632,13 @@
         <v>32</v>
       </c>
       <c r="R21" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="S21" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="T21" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="U21" t="s">
         <v>37</v>
@@ -4647,15 +4650,15 @@
         <v>32</v>
       </c>
       <c r="X21" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Y21" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="22" spans="1:25">
       <c r="A22" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B22" t="s">
         <v>26</v>
@@ -4664,13 +4667,13 @@
         <v>27</v>
       </c>
       <c r="D22" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E22" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="F22" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="G22" t="s">
         <v>31</v>
@@ -4679,10 +4682,10 @@
         <v>32</v>
       </c>
       <c r="I22" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="J22" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="K22" t="s">
         <v>35</v>
@@ -4706,7 +4709,7 @@
         <v>32</v>
       </c>
       <c r="R22" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="S22" t="s">
         <v>32</v>
@@ -4732,7 +4735,7 @@
     </row>
     <row r="23" spans="1:25">
       <c r="A23" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B23" t="s">
         <v>83</v>
@@ -4741,7 +4744,7 @@
         <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="E23" t="s">
         <v>29</v>
@@ -4750,16 +4753,16 @@
         <v>43</v>
       </c>
       <c r="G23" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="H23" t="s">
         <v>32</v>
       </c>
       <c r="I23" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="J23" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="K23" t="s">
         <v>35</v>
@@ -4783,13 +4786,13 @@
         <v>32</v>
       </c>
       <c r="R23" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="S23" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="T23" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="U23" t="s">
         <v>37</v>
@@ -4801,15 +4804,15 @@
         <v>32</v>
       </c>
       <c r="X23" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Y23" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="24" spans="1:25">
       <c r="A24" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B24" t="s">
         <v>83</v>
@@ -4818,10 +4821,10 @@
         <v>27</v>
       </c>
       <c r="D24" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E24" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="F24" t="s">
         <v>43</v>
@@ -4833,10 +4836,10 @@
         <v>32</v>
       </c>
       <c r="I24" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="J24" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="K24" t="s">
         <v>35</v>
@@ -4860,10 +4863,10 @@
         <v>32</v>
       </c>
       <c r="R24" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="S24" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="T24" t="s">
         <v>32</v>
@@ -4878,15 +4881,15 @@
         <v>32</v>
       </c>
       <c r="X24" t="s">
-        <v>129</v>
+        <v>97</v>
       </c>
       <c r="Y24" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="25" spans="1:25">
       <c r="A25" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B25" t="s">
         <v>26</v>
@@ -4895,25 +4898,25 @@
         <v>27</v>
       </c>
       <c r="D25" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E25" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="F25" t="s">
         <v>43</v>
       </c>
       <c r="G25" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="H25" t="s">
         <v>32</v>
       </c>
       <c r="I25" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="J25" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="K25" t="s">
         <v>35</v>
@@ -4937,7 +4940,7 @@
         <v>32</v>
       </c>
       <c r="R25" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="S25" t="s">
         <v>32</v>
@@ -4963,7 +4966,7 @@
     </row>
     <row r="26" spans="1:25">
       <c r="A26" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B26" t="s">
         <v>83</v>
@@ -4972,10 +4975,10 @@
         <v>27</v>
       </c>
       <c r="D26" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E26" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="F26" t="s">
         <v>43</v>
@@ -4987,10 +4990,10 @@
         <v>32</v>
       </c>
       <c r="I26" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="J26" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="K26" t="s">
         <v>60</v>
@@ -5014,13 +5017,13 @@
         <v>32</v>
       </c>
       <c r="R26" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="S26" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="T26" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="U26" t="s">
         <v>37</v>
@@ -5032,15 +5035,15 @@
         <v>32</v>
       </c>
       <c r="X26" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Y26" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="27" spans="1:25">
       <c r="A27" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B27" t="s">
         <v>83</v>
@@ -5049,13 +5052,13 @@
         <v>27</v>
       </c>
       <c r="D27" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="E27" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="F27" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="G27" t="s">
         <v>52</v>
@@ -5067,7 +5070,7 @@
         <v>32</v>
       </c>
       <c r="J27" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="K27" t="s">
         <v>35</v>
@@ -5094,7 +5097,7 @@
         <v>32</v>
       </c>
       <c r="S27" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="T27" t="s">
         <v>32</v>
@@ -5117,7 +5120,7 @@
     </row>
     <row r="28" spans="1:25">
       <c r="A28" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B28" t="s">
         <v>83</v>
@@ -5126,25 +5129,25 @@
         <v>27</v>
       </c>
       <c r="D28" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="E28" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="F28" t="s">
         <v>43</v>
       </c>
       <c r="G28" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="H28" t="s">
         <v>32</v>
       </c>
       <c r="I28" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="J28" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="K28" t="s">
         <v>35</v>
@@ -5168,13 +5171,13 @@
         <v>32</v>
       </c>
       <c r="R28" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="S28" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="T28" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="U28" t="s">
         <v>37</v>
@@ -5186,15 +5189,15 @@
         <v>32</v>
       </c>
       <c r="X28" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Y28" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="29" spans="1:25">
       <c r="A29" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B29" t="s">
         <v>26</v>
@@ -5203,13 +5206,13 @@
         <v>27</v>
       </c>
       <c r="D29" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="E29" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="F29" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="G29" t="s">
         <v>52</v>
@@ -5221,7 +5224,7 @@
         <v>32</v>
       </c>
       <c r="J29" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="K29" t="s">
         <v>35</v>
@@ -5242,10 +5245,10 @@
         <v>32</v>
       </c>
       <c r="Q29" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="R29" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="S29" t="s">
         <v>32</v>
@@ -5271,7 +5274,7 @@
     </row>
     <row r="30" spans="1:25">
       <c r="A30" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B30" t="s">
         <v>26</v>
@@ -5280,25 +5283,25 @@
         <v>27</v>
       </c>
       <c r="D30" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="E30" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="F30" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="G30" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="H30" t="s">
         <v>32</v>
       </c>
       <c r="I30" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="J30" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="K30" t="s">
         <v>35</v>
@@ -5319,10 +5322,10 @@
         <v>32</v>
       </c>
       <c r="Q30" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="R30" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="S30" t="s">
         <v>32</v>
@@ -5348,7 +5351,7 @@
     </row>
     <row r="31" spans="1:25">
       <c r="A31" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B31" t="s">
         <v>83</v>
@@ -5357,10 +5360,10 @@
         <v>27</v>
       </c>
       <c r="D31" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="E31" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F31" t="s">
         <v>43</v>
@@ -5372,13 +5375,13 @@
         <v>32</v>
       </c>
       <c r="I31" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="J31" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="K31" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="L31" t="s">
         <v>32</v>
@@ -5399,13 +5402,13 @@
         <v>32</v>
       </c>
       <c r="R31" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="S31" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="T31" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="U31" t="s">
         <v>37</v>
@@ -5417,15 +5420,15 @@
         <v>32</v>
       </c>
       <c r="X31" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Y31" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="32" spans="1:25">
       <c r="A32" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B32" t="s">
         <v>83</v>
@@ -5434,25 +5437,25 @@
         <v>27</v>
       </c>
       <c r="D32" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="E32" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F32" t="s">
         <v>43</v>
       </c>
       <c r="G32" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="H32" t="s">
         <v>32</v>
       </c>
       <c r="I32" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="J32" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="K32" t="s">
         <v>35</v>
@@ -5476,13 +5479,13 @@
         <v>32</v>
       </c>
       <c r="R32" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="S32" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="T32" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="U32" t="s">
         <v>37</v>
@@ -5494,15 +5497,15 @@
         <v>32</v>
       </c>
       <c r="X32" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Y32" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row r="33" spans="1:25">
       <c r="A33" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B33" t="s">
         <v>83</v>
@@ -5511,25 +5514,25 @@
         <v>27</v>
       </c>
       <c r="D33" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="E33" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F33" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="G33" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="H33" t="s">
         <v>32</v>
       </c>
       <c r="I33" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="J33" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="K33" t="s">
         <v>35</v>
@@ -5553,13 +5556,13 @@
         <v>32</v>
       </c>
       <c r="R33" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="S33" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="T33" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="U33" t="s">
         <v>37</v>
@@ -5571,15 +5574,15 @@
         <v>32</v>
       </c>
       <c r="X33" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Y33" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row r="34" spans="1:25">
       <c r="A34" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B34" t="s">
         <v>83</v>
@@ -5588,13 +5591,13 @@
         <v>27</v>
       </c>
       <c r="D34" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="E34" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F34" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="G34" t="s">
         <v>31</v>
@@ -5603,10 +5606,10 @@
         <v>32</v>
       </c>
       <c r="I34" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="J34" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="K34" t="s">
         <v>35</v>
@@ -5630,13 +5633,13 @@
         <v>32</v>
       </c>
       <c r="R34" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="S34" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="T34" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="U34" t="s">
         <v>37</v>
@@ -5648,15 +5651,15 @@
         <v>32</v>
       </c>
       <c r="X34" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Y34" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row r="35" spans="1:25">
       <c r="A35" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B35" t="s">
         <v>83</v>
@@ -5665,10 +5668,10 @@
         <v>27</v>
       </c>
       <c r="D35" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="E35" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F35" t="s">
         <v>43</v>
@@ -5680,7 +5683,7 @@
         <v>32</v>
       </c>
       <c r="I35" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="J35" t="s">
         <v>32</v>
@@ -5707,13 +5710,13 @@
         <v>32</v>
       </c>
       <c r="R35" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="S35" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="T35" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="U35" t="s">
         <v>37</v>
@@ -5725,15 +5728,15 @@
         <v>32</v>
       </c>
       <c r="X35" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Y35" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
     </row>
     <row r="36" spans="1:25">
       <c r="A36" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B36" t="s">
         <v>83</v>
@@ -5742,28 +5745,28 @@
         <v>27</v>
       </c>
       <c r="D36" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="E36" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F36" t="s">
         <v>43</v>
       </c>
       <c r="G36" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="H36" t="s">
         <v>32</v>
       </c>
       <c r="I36" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="J36" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="K36" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="L36" t="s">
         <v>32</v>
@@ -5781,16 +5784,16 @@
         <v>32</v>
       </c>
       <c r="Q36" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="R36" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="S36" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="T36" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="U36" t="s">
         <v>37</v>
@@ -5802,15 +5805,15 @@
         <v>32</v>
       </c>
       <c r="X36" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Y36" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
     </row>
     <row r="37" spans="1:25">
       <c r="A37" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B37" t="s">
         <v>26</v>
@@ -5819,16 +5822,16 @@
         <v>27</v>
       </c>
       <c r="D37" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="E37" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="F37" t="s">
         <v>43</v>
       </c>
       <c r="G37" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="H37" t="s">
         <v>32</v>
@@ -5837,7 +5840,7 @@
         <v>32</v>
       </c>
       <c r="J37" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="K37" t="s">
         <v>35</v>
@@ -5861,7 +5864,7 @@
         <v>32</v>
       </c>
       <c r="R37" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="S37" t="s">
         <v>32</v>
@@ -5887,7 +5890,7 @@
     </row>
     <row r="38" spans="1:25">
       <c r="A38" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B38" t="s">
         <v>26</v>
@@ -5896,13 +5899,13 @@
         <v>27</v>
       </c>
       <c r="D38" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="E38" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="F38" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="G38" t="s">
         <v>52</v>
@@ -5914,7 +5917,7 @@
         <v>32</v>
       </c>
       <c r="J38" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="K38" t="s">
         <v>35</v>
@@ -5938,7 +5941,7 @@
         <v>32</v>
       </c>
       <c r="R38" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="S38" t="s">
         <v>32</v>
@@ -5964,7 +5967,7 @@
     </row>
     <row r="39" spans="1:25">
       <c r="A39" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B39" t="s">
         <v>26</v>
@@ -5973,13 +5976,13 @@
         <v>27</v>
       </c>
       <c r="D39" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="E39" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="F39" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="G39" t="s">
         <v>31</v>
@@ -5991,7 +5994,7 @@
         <v>32</v>
       </c>
       <c r="J39" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="K39" t="s">
         <v>35</v>
@@ -6012,10 +6015,10 @@
         <v>32</v>
       </c>
       <c r="Q39" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="R39" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="S39" t="s">
         <v>32</v>
@@ -6041,7 +6044,7 @@
     </row>
     <row r="40" spans="1:25">
       <c r="A40" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B40" t="s">
         <v>83</v>
@@ -6050,28 +6053,28 @@
         <v>27</v>
       </c>
       <c r="D40" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="E40" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="F40" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="G40" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="H40" t="s">
         <v>32</v>
       </c>
       <c r="I40" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="J40" t="s">
         <v>69</v>
       </c>
       <c r="K40" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="L40" t="s">
         <v>32</v>
@@ -6092,13 +6095,13 @@
         <v>32</v>
       </c>
       <c r="R40" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="S40" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="T40" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="U40" t="s">
         <v>37</v>
@@ -6110,15 +6113,15 @@
         <v>32</v>
       </c>
       <c r="X40" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="Y40" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="41" spans="1:25">
       <c r="A41" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B41" t="s">
         <v>26</v>
@@ -6127,13 +6130,13 @@
         <v>27</v>
       </c>
       <c r="D41" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="E41" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="F41" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="G41" t="s">
         <v>31</v>
@@ -6142,10 +6145,10 @@
         <v>32</v>
       </c>
       <c r="I41" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="J41" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="K41" t="s">
         <v>35</v>
@@ -6163,13 +6166,13 @@
         <v>32</v>
       </c>
       <c r="P41" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="Q41" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="R41" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="S41" t="s">
         <v>32</v>
@@ -6195,7 +6198,7 @@
     </row>
     <row r="42" spans="1:25">
       <c r="A42" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B42" t="s">
         <v>26</v>
@@ -6204,13 +6207,13 @@
         <v>27</v>
       </c>
       <c r="D42" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="E42" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="F42" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="G42" t="s">
         <v>31</v>
@@ -6222,7 +6225,7 @@
         <v>32</v>
       </c>
       <c r="J42" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="K42" t="s">
         <v>35</v>
@@ -6243,10 +6246,10 @@
         <v>32</v>
       </c>
       <c r="Q42" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="R42" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="S42" t="s">
         <v>32</v>
@@ -6272,7 +6275,7 @@
     </row>
     <row r="43" spans="1:25">
       <c r="A43" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B43" t="s">
         <v>83</v>
@@ -6323,10 +6326,10 @@
         <v>32</v>
       </c>
       <c r="R43" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="S43" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="T43" t="s">
         <v>32</v>
@@ -6349,19 +6352,19 @@
     </row>
     <row r="44" spans="1:25">
       <c r="A44" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B44" t="s">
         <v>83</v>
       </c>
       <c r="C44" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="D44" t="s">
         <v>85</v>
       </c>
       <c r="E44" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="F44" t="s">
         <v>51</v>
@@ -6400,10 +6403,10 @@
         <v>32</v>
       </c>
       <c r="R44" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="S44" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="T44" t="s">
         <v>32</v>
@@ -6426,7 +6429,7 @@
     </row>
     <row r="45" spans="1:25">
       <c r="A45" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B45" t="s">
         <v>26</v>
@@ -6435,13 +6438,13 @@
         <v>27</v>
       </c>
       <c r="D45" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="E45" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="F45" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="G45" t="s">
         <v>31</v>
@@ -6450,10 +6453,10 @@
         <v>32</v>
       </c>
       <c r="I45" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="J45" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="K45" t="s">
         <v>35</v>
@@ -6477,7 +6480,7 @@
         <v>32</v>
       </c>
       <c r="R45" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="S45" t="s">
         <v>32</v>
@@ -6503,7 +6506,7 @@
     </row>
     <row r="46" spans="1:25">
       <c r="A46" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B46" t="s">
         <v>83</v>
@@ -6512,10 +6515,10 @@
         <v>27</v>
       </c>
       <c r="D46" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="E46" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F46" t="s">
         <v>43</v>
@@ -6527,10 +6530,10 @@
         <v>32</v>
       </c>
       <c r="I46" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="J46" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="K46" t="s">
         <v>35</v>
@@ -6554,13 +6557,13 @@
         <v>32</v>
       </c>
       <c r="R46" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="S46" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="T46" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="U46" t="s">
         <v>37</v>
@@ -6572,15 +6575,15 @@
         <v>32</v>
       </c>
       <c r="X46" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="Y46" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
     </row>
     <row r="47" spans="1:25">
       <c r="A47" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="B47" t="s">
         <v>83</v>
@@ -6589,13 +6592,13 @@
         <v>27</v>
       </c>
       <c r="D47" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="E47" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F47" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="G47" t="s">
         <v>31</v>
@@ -6604,10 +6607,10 @@
         <v>32</v>
       </c>
       <c r="I47" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="J47" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="K47" t="s">
         <v>35</v>
@@ -6631,13 +6634,13 @@
         <v>32</v>
       </c>
       <c r="R47" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="S47" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="T47" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="U47" t="s">
         <v>37</v>
@@ -6649,15 +6652,15 @@
         <v>32</v>
       </c>
       <c r="X47" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Y47" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
     </row>
     <row r="48" spans="1:25">
       <c r="A48" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B48" t="s">
         <v>26</v>
@@ -6666,16 +6669,16 @@
         <v>27</v>
       </c>
       <c r="D48" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="E48" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="F48" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="G48" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="H48" t="s">
         <v>32</v>
@@ -6684,7 +6687,7 @@
         <v>32</v>
       </c>
       <c r="J48" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="K48" t="s">
         <v>35</v>
@@ -6708,7 +6711,7 @@
         <v>32</v>
       </c>
       <c r="R48" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="S48" t="s">
         <v>32</v>
@@ -6734,7 +6737,7 @@
     </row>
     <row r="49" spans="1:25">
       <c r="A49" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B49" t="s">
         <v>83</v>
@@ -6743,13 +6746,13 @@
         <v>27</v>
       </c>
       <c r="D49" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="E49" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F49" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="G49" t="s">
         <v>31</v>
@@ -6758,10 +6761,10 @@
         <v>32</v>
       </c>
       <c r="I49" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="J49" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="K49" t="s">
         <v>35</v>
@@ -6785,13 +6788,13 @@
         <v>32</v>
       </c>
       <c r="R49" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="S49" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="T49" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="U49" t="s">
         <v>37</v>
@@ -6803,27 +6806,27 @@
         <v>32</v>
       </c>
       <c r="X49" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Y49" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row r="50" spans="1:25">
       <c r="A50" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="B50" t="s">
         <v>26</v>
       </c>
       <c r="C50" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="D50" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="E50" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="F50" t="s">
         <v>43</v>
@@ -6835,10 +6838,10 @@
         <v>32</v>
       </c>
       <c r="I50" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="J50" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="K50" t="s">
         <v>35</v>
@@ -6862,7 +6865,7 @@
         <v>32</v>
       </c>
       <c r="R50" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="S50" t="s">
         <v>32</v>
@@ -6888,7 +6891,7 @@
     </row>
     <row r="51" spans="1:25">
       <c r="A51" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="B51" t="s">
         <v>26</v>
@@ -6897,13 +6900,13 @@
         <v>27</v>
       </c>
       <c r="D51" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="E51" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="F51" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="G51" t="s">
         <v>52</v>
@@ -6912,10 +6915,10 @@
         <v>32</v>
       </c>
       <c r="I51" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="J51" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="K51" t="s">
         <v>35</v>
@@ -6939,7 +6942,7 @@
         <v>32</v>
       </c>
       <c r="R51" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="S51" t="s">
         <v>32</v>
@@ -6965,7 +6968,7 @@
     </row>
     <row r="52" spans="1:25">
       <c r="A52" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="B52" t="s">
         <v>83</v>
@@ -6974,13 +6977,13 @@
         <v>27</v>
       </c>
       <c r="D52" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="E52" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F52" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="G52" t="s">
         <v>31</v>
@@ -6989,10 +6992,10 @@
         <v>32</v>
       </c>
       <c r="I52" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="J52" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="K52" t="s">
         <v>35</v>
@@ -7016,13 +7019,13 @@
         <v>32</v>
       </c>
       <c r="R52" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="S52" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="T52" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="U52" t="s">
         <v>37</v>
@@ -7034,15 +7037,15 @@
         <v>32</v>
       </c>
       <c r="X52" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Y52" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="53" spans="1:25">
       <c r="A53" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="B53" t="s">
         <v>26</v>
@@ -7051,13 +7054,13 @@
         <v>27</v>
       </c>
       <c r="D53" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="E53" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="F53" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="G53" t="s">
         <v>52</v>
@@ -7090,10 +7093,10 @@
         <v>32</v>
       </c>
       <c r="Q53" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="R53" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="S53" t="s">
         <v>32</v>
@@ -7119,7 +7122,7 @@
     </row>
     <row r="54" spans="1:25">
       <c r="A54" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B54" t="s">
         <v>26</v>
@@ -7128,10 +7131,10 @@
         <v>27</v>
       </c>
       <c r="D54" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="E54" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="F54" t="s">
         <v>43</v>
@@ -7143,7 +7146,7 @@
         <v>32</v>
       </c>
       <c r="I54" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="J54" t="s">
         <v>32</v>
@@ -7170,7 +7173,7 @@
         <v>32</v>
       </c>
       <c r="R54" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="S54" t="s">
         <v>32</v>
@@ -7196,7 +7199,7 @@
     </row>
     <row r="55" spans="1:25">
       <c r="A55" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="B55" t="s">
         <v>26</v>
@@ -7205,16 +7208,16 @@
         <v>27</v>
       </c>
       <c r="D55" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="E55" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="F55" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="G55" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="H55" t="s">
         <v>32</v>
@@ -7223,7 +7226,7 @@
         <v>32</v>
       </c>
       <c r="J55" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="K55" t="s">
         <v>35</v>
@@ -7247,7 +7250,7 @@
         <v>32</v>
       </c>
       <c r="R55" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="S55" t="s">
         <v>32</v>
@@ -7273,7 +7276,7 @@
     </row>
     <row r="56" spans="1:25">
       <c r="A56" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="B56" t="s">
         <v>83</v>
@@ -7282,10 +7285,10 @@
         <v>27</v>
       </c>
       <c r="D56" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="E56" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F56" t="s">
         <v>43</v>
@@ -7297,10 +7300,10 @@
         <v>32</v>
       </c>
       <c r="I56" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="J56" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="K56" t="s">
         <v>35</v>
@@ -7324,13 +7327,13 @@
         <v>32</v>
       </c>
       <c r="R56" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="S56" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="T56" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="U56" t="s">
         <v>37</v>
@@ -7342,15 +7345,15 @@
         <v>32</v>
       </c>
       <c r="X56" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Y56" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
     </row>
     <row r="57" spans="1:25">
       <c r="A57" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="B57" t="s">
         <v>83</v>
@@ -7359,13 +7362,13 @@
         <v>27</v>
       </c>
       <c r="D57" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="E57" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F57" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="G57" t="s">
         <v>31</v>
@@ -7374,10 +7377,10 @@
         <v>32</v>
       </c>
       <c r="I57" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="J57" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="K57" t="s">
         <v>35</v>
@@ -7401,13 +7404,13 @@
         <v>32</v>
       </c>
       <c r="R57" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="S57" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="T57" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="U57" t="s">
         <v>37</v>
@@ -7419,15 +7422,15 @@
         <v>32</v>
       </c>
       <c r="X57" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="Y57" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
     </row>
     <row r="58" spans="1:25">
       <c r="A58" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="B58" t="s">
         <v>26</v>
@@ -7436,22 +7439,22 @@
         <v>27</v>
       </c>
       <c r="D58" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="E58" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="F58" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="G58" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="H58" t="s">
         <v>32</v>
       </c>
       <c r="I58" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="J58" t="s">
         <v>32</v>
@@ -7478,7 +7481,7 @@
         <v>32</v>
       </c>
       <c r="R58" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="S58" t="s">
         <v>32</v>
@@ -7504,7 +7507,7 @@
     </row>
     <row r="59" spans="1:25">
       <c r="A59" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="B59" t="s">
         <v>26</v>
@@ -7513,13 +7516,13 @@
         <v>27</v>
       </c>
       <c r="D59" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="E59" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="F59" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="G59" t="s">
         <v>31</v>
@@ -7528,10 +7531,10 @@
         <v>32</v>
       </c>
       <c r="I59" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="J59" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="K59" t="s">
         <v>35</v>
@@ -7552,10 +7555,10 @@
         <v>32</v>
       </c>
       <c r="Q59" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="R59" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="S59" t="s">
         <v>32</v>
@@ -7581,7 +7584,7 @@
     </row>
     <row r="60" spans="1:25">
       <c r="A60" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="B60" t="s">
         <v>83</v>
@@ -7590,28 +7593,28 @@
         <v>27</v>
       </c>
       <c r="D60" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="E60" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="F60" t="s">
         <v>43</v>
       </c>
       <c r="G60" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="H60" t="s">
         <v>32</v>
       </c>
       <c r="I60" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="J60" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="K60" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="L60" t="s">
         <v>32</v>
@@ -7632,10 +7635,10 @@
         <v>32</v>
       </c>
       <c r="R60" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="S60" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="T60" t="s">
         <v>32</v>
@@ -7658,7 +7661,7 @@
     </row>
     <row r="61" spans="1:25">
       <c r="A61" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="B61" t="s">
         <v>26</v>
@@ -7667,25 +7670,25 @@
         <v>27</v>
       </c>
       <c r="D61" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="E61" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="F61" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="G61" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="H61" t="s">
         <v>32</v>
       </c>
       <c r="I61" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="J61" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="K61" t="s">
         <v>35</v>
@@ -7706,10 +7709,10 @@
         <v>32</v>
       </c>
       <c r="Q61" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="R61" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="S61" t="s">
         <v>32</v>
@@ -7735,7 +7738,7 @@
     </row>
     <row r="62" spans="1:25">
       <c r="A62" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="B62" t="s">
         <v>83</v>
@@ -7744,25 +7747,25 @@
         <v>27</v>
       </c>
       <c r="D62" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="E62" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F62" t="s">
         <v>43</v>
       </c>
       <c r="G62" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="H62" t="s">
         <v>32</v>
       </c>
       <c r="I62" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="J62" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="K62" t="s">
         <v>35</v>
@@ -7786,10 +7789,10 @@
         <v>32</v>
       </c>
       <c r="R62" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="S62" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="T62" t="s">
         <v>32</v>
@@ -7812,7 +7815,7 @@
     </row>
     <row r="63" spans="1:25">
       <c r="A63" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="B63" t="s">
         <v>26</v>
@@ -7821,16 +7824,16 @@
         <v>27</v>
       </c>
       <c r="D63" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="E63" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="F63" t="s">
         <v>43</v>
       </c>
       <c r="G63" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="H63" t="s">
         <v>32</v>
@@ -7839,7 +7842,7 @@
         <v>32</v>
       </c>
       <c r="J63" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="K63" t="s">
         <v>35</v>
@@ -7863,7 +7866,7 @@
         <v>32</v>
       </c>
       <c r="R63" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="S63" t="s">
         <v>32</v>
@@ -7889,7 +7892,7 @@
     </row>
     <row r="64" spans="1:25">
       <c r="A64" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="B64" t="s">
         <v>26</v>
@@ -7898,13 +7901,13 @@
         <v>27</v>
       </c>
       <c r="D64" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="E64" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="F64" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="G64" t="s">
         <v>31</v>
@@ -7940,7 +7943,7 @@
         <v>32</v>
       </c>
       <c r="R64" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="S64" t="s">
         <v>32</v>
@@ -7966,7 +7969,7 @@
     </row>
     <row r="65" spans="1:25">
       <c r="A65" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="B65" t="s">
         <v>83</v>
@@ -7975,10 +7978,10 @@
         <v>27</v>
       </c>
       <c r="D65" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="E65" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F65" t="s">
         <v>43</v>
@@ -7993,7 +7996,7 @@
         <v>32</v>
       </c>
       <c r="J65" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="K65" t="s">
         <v>35</v>
@@ -8017,10 +8020,10 @@
         <v>32</v>
       </c>
       <c r="R65" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="S65" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="T65" t="s">
         <v>32</v>
@@ -8043,7 +8046,7 @@
     </row>
     <row r="66" spans="1:25">
       <c r="A66" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="B66" t="s">
         <v>83</v>
@@ -8052,13 +8055,13 @@
         <v>27</v>
       </c>
       <c r="D66" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="E66" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F66" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="G66" t="s">
         <v>31</v>
@@ -8067,10 +8070,10 @@
         <v>32</v>
       </c>
       <c r="I66" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="J66" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="K66" t="s">
         <v>35</v>
@@ -8094,13 +8097,13 @@
         <v>32</v>
       </c>
       <c r="R66" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="S66" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="T66" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="U66" t="s">
         <v>37</v>
@@ -8112,15 +8115,15 @@
         <v>32</v>
       </c>
       <c r="X66" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="Y66" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="67" spans="1:25">
       <c r="A67" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="B67" t="s">
         <v>26</v>
@@ -8129,10 +8132,10 @@
         <v>27</v>
       </c>
       <c r="D67" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="E67" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="F67" t="s">
         <v>43</v>
@@ -8144,7 +8147,7 @@
         <v>32</v>
       </c>
       <c r="I67" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="J67" t="s">
         <v>32</v>
@@ -8168,10 +8171,10 @@
         <v>32</v>
       </c>
       <c r="Q67" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="R67" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="S67" t="s">
         <v>32</v>
@@ -8189,15 +8192,15 @@
         <v>32</v>
       </c>
       <c r="X67" t="s">
-        <v>129</v>
+        <v>97</v>
       </c>
       <c r="Y67" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="68" spans="1:25">
       <c r="A68" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="B68" t="s">
         <v>83</v>
@@ -8206,22 +8209,22 @@
         <v>27</v>
       </c>
       <c r="D68" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="E68" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="F68" t="s">
         <v>43</v>
       </c>
       <c r="G68" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="H68" t="s">
         <v>32</v>
       </c>
       <c r="I68" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="J68" t="s">
         <v>69</v>
@@ -8245,13 +8248,13 @@
         <v>32</v>
       </c>
       <c r="Q68" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="R68" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="S68" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="T68" t="s">
         <v>32</v>
@@ -8266,15 +8269,15 @@
         <v>32</v>
       </c>
       <c r="X68" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="Y68" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="69" spans="1:25">
       <c r="A69" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="B69" t="s">
         <v>26</v>
@@ -8283,13 +8286,13 @@
         <v>27</v>
       </c>
       <c r="D69" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="E69" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="F69" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="G69" t="s">
         <v>52</v>
@@ -8301,7 +8304,7 @@
         <v>32</v>
       </c>
       <c r="J69" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="K69" t="s">
         <v>35</v>
@@ -8322,10 +8325,10 @@
         <v>32</v>
       </c>
       <c r="Q69" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="R69" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="S69" t="s">
         <v>32</v>
@@ -8351,7 +8354,7 @@
     </row>
     <row r="70" spans="1:25">
       <c r="A70" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="B70" t="s">
         <v>26</v>
@@ -8360,13 +8363,13 @@
         <v>27</v>
       </c>
       <c r="D70" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="E70" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="F70" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="G70" t="s">
         <v>31</v>
@@ -8378,7 +8381,7 @@
         <v>32</v>
       </c>
       <c r="J70" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="K70" t="s">
         <v>35</v>
@@ -8399,10 +8402,10 @@
         <v>32</v>
       </c>
       <c r="Q70" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="R70" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="S70" t="s">
         <v>32</v>
@@ -8428,7 +8431,7 @@
     </row>
     <row r="71" spans="1:25">
       <c r="A71" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="B71" t="s">
         <v>26</v>
@@ -8437,16 +8440,16 @@
         <v>27</v>
       </c>
       <c r="D71" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="E71" t="s">
         <v>29</v>
       </c>
       <c r="F71" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="G71" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="H71" t="s">
         <v>32</v>
@@ -8455,7 +8458,7 @@
         <v>32</v>
       </c>
       <c r="J71" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="K71" t="s">
         <v>35</v>
@@ -8479,7 +8482,7 @@
         <v>32</v>
       </c>
       <c r="R71" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="S71" t="s">
         <v>32</v>
@@ -8505,7 +8508,7 @@
     </row>
     <row r="72" spans="1:25">
       <c r="A72" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="B72" t="s">
         <v>26</v>
@@ -8514,25 +8517,25 @@
         <v>27</v>
       </c>
       <c r="D72" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="E72" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="F72" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="G72" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="H72" t="s">
         <v>32</v>
       </c>
       <c r="I72" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="J72" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="K72" t="s">
         <v>35</v>
@@ -8556,7 +8559,7 @@
         <v>32</v>
       </c>
       <c r="R72" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="S72" t="s">
         <v>32</v>
@@ -8582,7 +8585,7 @@
     </row>
     <row r="73" spans="1:25">
       <c r="A73" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="B73" t="s">
         <v>83</v>
@@ -8591,10 +8594,10 @@
         <v>27</v>
       </c>
       <c r="D73" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="E73" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="F73" t="s">
         <v>43</v>
@@ -8636,7 +8639,7 @@
         <v>32</v>
       </c>
       <c r="S73" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="T73" t="s">
         <v>32</v>
@@ -8659,7 +8662,7 @@
     </row>
     <row r="74" spans="1:25">
       <c r="A74" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="B74" t="s">
         <v>26</v>
@@ -8668,25 +8671,25 @@
         <v>27</v>
       </c>
       <c r="D74" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="E74" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="F74" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="G74" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="H74" t="s">
         <v>32</v>
       </c>
       <c r="I74" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="J74" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="K74" t="s">
         <v>35</v>
@@ -8707,10 +8710,10 @@
         <v>32</v>
       </c>
       <c r="Q74" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="R74" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="S74" t="s">
         <v>32</v>
@@ -8728,15 +8731,15 @@
         <v>32</v>
       </c>
       <c r="X74" t="s">
-        <v>129</v>
+        <v>97</v>
       </c>
       <c r="Y74" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
     </row>
     <row r="75" spans="1:25">
       <c r="A75" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="B75" t="s">
         <v>26</v>
@@ -8745,16 +8748,16 @@
         <v>27</v>
       </c>
       <c r="D75" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="E75" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="F75" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="G75" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="H75" t="s">
         <v>32</v>
@@ -8763,7 +8766,7 @@
         <v>32</v>
       </c>
       <c r="J75" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="K75" t="s">
         <v>35</v>
@@ -8781,13 +8784,13 @@
         <v>32</v>
       </c>
       <c r="P75" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="Q75" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="R75" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="S75" t="s">
         <v>32</v>
@@ -8813,7 +8816,7 @@
     </row>
     <row r="76" spans="1:25">
       <c r="A76" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="B76" t="s">
         <v>26</v>
@@ -8822,25 +8825,25 @@
         <v>27</v>
       </c>
       <c r="D76" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="E76" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="F76" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="G76" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="H76" t="s">
         <v>32</v>
       </c>
       <c r="I76" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="J76" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="K76" t="s">
         <v>35</v>
@@ -8864,7 +8867,7 @@
         <v>32</v>
       </c>
       <c r="R76" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="S76" t="s">
         <v>32</v>
@@ -8890,7 +8893,7 @@
     </row>
     <row r="77" spans="1:25">
       <c r="A77" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="B77" t="s">
         <v>83</v>
@@ -8899,10 +8902,10 @@
         <v>27</v>
       </c>
       <c r="D77" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="E77" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="F77" t="s">
         <v>51</v>
@@ -8941,10 +8944,10 @@
         <v>32</v>
       </c>
       <c r="R77" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="S77" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="T77" t="s">
         <v>32</v>
@@ -8967,7 +8970,7 @@
     </row>
     <row r="78" spans="1:25">
       <c r="A78" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="B78" t="s">
         <v>83</v>
@@ -8976,10 +8979,10 @@
         <v>27</v>
       </c>
       <c r="D78" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="E78" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="F78" t="s">
         <v>43</v>
@@ -8991,10 +8994,10 @@
         <v>32</v>
       </c>
       <c r="I78" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="J78" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="K78" t="s">
         <v>35</v>
@@ -9018,10 +9021,10 @@
         <v>32</v>
       </c>
       <c r="R78" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="S78" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="T78" t="s">
         <v>32</v>
@@ -9044,7 +9047,7 @@
     </row>
     <row r="79" spans="1:25">
       <c r="A79" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="B79" t="s">
         <v>83</v>
@@ -9053,13 +9056,13 @@
         <v>27</v>
       </c>
       <c r="D79" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="E79" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F79" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="G79" t="s">
         <v>52</v>
@@ -9068,10 +9071,10 @@
         <v>32</v>
       </c>
       <c r="I79" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="J79" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="K79" t="s">
         <v>35</v>
@@ -9095,10 +9098,10 @@
         <v>32</v>
       </c>
       <c r="R79" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="S79" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="T79" t="s">
         <v>32</v>
@@ -9121,7 +9124,7 @@
     </row>
     <row r="80" spans="1:25">
       <c r="A80" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="B80" t="s">
         <v>83</v>
@@ -9130,10 +9133,10 @@
         <v>27</v>
       </c>
       <c r="D80" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="E80" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F80" t="s">
         <v>43</v>
@@ -9145,10 +9148,10 @@
         <v>32</v>
       </c>
       <c r="I80" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="J80" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="K80" t="s">
         <v>35</v>
@@ -9172,13 +9175,13 @@
         <v>32</v>
       </c>
       <c r="R80" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="S80" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="T80" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="U80" t="s">
         <v>37</v>
@@ -9190,15 +9193,15 @@
         <v>32</v>
       </c>
       <c r="X80" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="Y80" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
     </row>
     <row r="81" spans="1:25">
       <c r="A81" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="B81" t="s">
         <v>83</v>
@@ -9207,10 +9210,10 @@
         <v>27</v>
       </c>
       <c r="D81" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="E81" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F81" t="s">
         <v>43</v>
@@ -9222,7 +9225,7 @@
         <v>32</v>
       </c>
       <c r="I81" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="J81" t="s">
         <v>32</v>
@@ -9249,10 +9252,10 @@
         <v>32</v>
       </c>
       <c r="R81" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="S81" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="T81" t="s">
         <v>32</v>
@@ -9275,7 +9278,7 @@
     </row>
     <row r="82" spans="1:25">
       <c r="A82" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="B82" t="s">
         <v>26</v>
@@ -9284,13 +9287,13 @@
         <v>27</v>
       </c>
       <c r="D82" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="E82" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="F82" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="G82" t="s">
         <v>31</v>
@@ -9302,7 +9305,7 @@
         <v>32</v>
       </c>
       <c r="J82" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="K82" t="s">
         <v>35</v>
@@ -9323,10 +9326,10 @@
         <v>32</v>
       </c>
       <c r="Q82" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="R82" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="S82" t="s">
         <v>32</v>
@@ -9352,7 +9355,7 @@
     </row>
     <row r="83" spans="1:25">
       <c r="A83" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="B83" t="s">
         <v>26</v>
@@ -9361,13 +9364,13 @@
         <v>27</v>
       </c>
       <c r="D83" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="E83" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="F83" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="G83" t="s">
         <v>52</v>
@@ -9379,7 +9382,7 @@
         <v>32</v>
       </c>
       <c r="J83" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="K83" t="s">
         <v>35</v>
@@ -9400,10 +9403,10 @@
         <v>32</v>
       </c>
       <c r="Q83" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="R83" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="S83" t="s">
         <v>32</v>
@@ -9429,7 +9432,7 @@
     </row>
     <row r="84" spans="1:25">
       <c r="A84" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="B84" t="s">
         <v>83</v>
@@ -9438,10 +9441,10 @@
         <v>27</v>
       </c>
       <c r="D84" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="E84" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="F84" t="s">
         <v>43</v>
@@ -9453,10 +9456,10 @@
         <v>32</v>
       </c>
       <c r="I84" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="J84" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="K84" t="s">
         <v>35</v>
@@ -9480,13 +9483,13 @@
         <v>32</v>
       </c>
       <c r="R84" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="S84" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="T84" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="U84" t="s">
         <v>37</v>
@@ -9498,15 +9501,15 @@
         <v>32</v>
       </c>
       <c r="X84" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="Y84" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
     </row>
     <row r="85" spans="1:25">
       <c r="A85" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="B85" t="s">
         <v>83</v>
@@ -9515,10 +9518,10 @@
         <v>27</v>
       </c>
       <c r="D85" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="E85" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F85" t="s">
         <v>43</v>
@@ -9530,10 +9533,10 @@
         <v>32</v>
       </c>
       <c r="I85" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="J85" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="K85" t="s">
         <v>35</v>
@@ -9557,10 +9560,10 @@
         <v>32</v>
       </c>
       <c r="R85" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="S85" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="T85" t="s">
         <v>32</v>
@@ -9583,7 +9586,7 @@
     </row>
     <row r="86" spans="1:25">
       <c r="A86" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="B86" t="s">
         <v>83</v>
@@ -9592,10 +9595,10 @@
         <v>27</v>
       </c>
       <c r="D86" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="E86" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F86" t="s">
         <v>43</v>
@@ -9607,10 +9610,10 @@
         <v>32</v>
       </c>
       <c r="I86" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="J86" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="K86" t="s">
         <v>35</v>
@@ -9634,13 +9637,13 @@
         <v>32</v>
       </c>
       <c r="R86" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="S86" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="T86" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="U86" t="s">
         <v>37</v>
@@ -9652,15 +9655,15 @@
         <v>32</v>
       </c>
       <c r="X86" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Y86" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
     </row>
     <row r="87" spans="1:25">
       <c r="A87" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="B87" t="s">
         <v>83</v>
@@ -9669,10 +9672,10 @@
         <v>27</v>
       </c>
       <c r="D87" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="E87" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F87" t="s">
         <v>43</v>
@@ -9684,10 +9687,10 @@
         <v>32</v>
       </c>
       <c r="I87" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="J87" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="K87" t="s">
         <v>35</v>
@@ -9711,13 +9714,13 @@
         <v>32</v>
       </c>
       <c r="R87" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="S87" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="T87" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="U87" t="s">
         <v>37</v>
@@ -9729,15 +9732,15 @@
         <v>32</v>
       </c>
       <c r="X87" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="Y87" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
     </row>
     <row r="88" spans="1:25">
       <c r="A88" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="B88" t="s">
         <v>83</v>
@@ -9746,10 +9749,10 @@
         <v>27</v>
       </c>
       <c r="D88" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="E88" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F88" t="s">
         <v>43</v>
@@ -9761,10 +9764,10 @@
         <v>32</v>
       </c>
       <c r="I88" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="J88" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="K88" t="s">
         <v>35</v>
@@ -9788,13 +9791,13 @@
         <v>32</v>
       </c>
       <c r="R88" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="S88" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="T88" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="U88" t="s">
         <v>37</v>
@@ -9806,15 +9809,15 @@
         <v>32</v>
       </c>
       <c r="X88" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="Y88" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
     </row>
     <row r="89" spans="1:25">
       <c r="A89" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="B89" t="s">
         <v>83</v>
@@ -9823,10 +9826,10 @@
         <v>27</v>
       </c>
       <c r="D89" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="E89" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F89" t="s">
         <v>43</v>
@@ -9838,10 +9841,10 @@
         <v>32</v>
       </c>
       <c r="I89" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="J89" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="K89" t="s">
         <v>35</v>
@@ -9865,10 +9868,10 @@
         <v>32</v>
       </c>
       <c r="R89" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="S89" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="T89" t="s">
         <v>32</v>
@@ -9891,7 +9894,7 @@
     </row>
     <row r="90" spans="1:25">
       <c r="A90" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="B90" t="s">
         <v>83</v>
@@ -9900,10 +9903,10 @@
         <v>27</v>
       </c>
       <c r="D90" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="E90" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F90" t="s">
         <v>43</v>
@@ -9915,10 +9918,10 @@
         <v>32</v>
       </c>
       <c r="I90" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="J90" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="K90" t="s">
         <v>35</v>
@@ -9942,10 +9945,10 @@
         <v>32</v>
       </c>
       <c r="R90" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="S90" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="T90" t="s">
         <v>32</v>
@@ -9968,7 +9971,7 @@
     </row>
     <row r="91" spans="1:25">
       <c r="A91" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="B91" t="s">
         <v>83</v>
@@ -9977,10 +9980,10 @@
         <v>27</v>
       </c>
       <c r="D91" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="E91" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F91" t="s">
         <v>43</v>
@@ -9992,7 +9995,7 @@
         <v>32</v>
       </c>
       <c r="I91" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="J91" t="s">
         <v>32</v>
@@ -10019,10 +10022,10 @@
         <v>32</v>
       </c>
       <c r="R91" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="S91" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="T91" t="s">
         <v>32</v>
@@ -10045,7 +10048,7 @@
     </row>
     <row r="92" spans="1:25">
       <c r="A92" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="B92" t="s">
         <v>83</v>
@@ -10054,10 +10057,10 @@
         <v>27</v>
       </c>
       <c r="D92" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="E92" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F92" t="s">
         <v>43</v>
@@ -10069,10 +10072,10 @@
         <v>32</v>
       </c>
       <c r="I92" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="J92" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="K92" t="s">
         <v>35</v>
@@ -10096,10 +10099,10 @@
         <v>32</v>
       </c>
       <c r="R92" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="S92" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="T92" t="s">
         <v>32</v>
@@ -10122,7 +10125,7 @@
     </row>
     <row r="93" spans="1:25">
       <c r="A93" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="B93" t="s">
         <v>83</v>
@@ -10134,7 +10137,7 @@
         <v>65</v>
       </c>
       <c r="E93" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F93" t="s">
         <v>43</v>
@@ -10146,7 +10149,7 @@
         <v>32</v>
       </c>
       <c r="I93" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="J93" t="s">
         <v>69</v>
@@ -10173,10 +10176,10 @@
         <v>32</v>
       </c>
       <c r="R93" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="S93" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="T93" t="s">
         <v>32</v>
@@ -10199,7 +10202,7 @@
     </row>
     <row r="94" spans="1:25">
       <c r="A94" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="B94" t="s">
         <v>83</v>
@@ -10208,10 +10211,10 @@
         <v>27</v>
       </c>
       <c r="D94" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="E94" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F94" t="s">
         <v>43</v>
@@ -10223,10 +10226,10 @@
         <v>32</v>
       </c>
       <c r="I94" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="J94" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="K94" t="s">
         <v>35</v>
@@ -10250,10 +10253,10 @@
         <v>32</v>
       </c>
       <c r="R94" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="S94" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="T94" t="s">
         <v>32</v>
@@ -10276,7 +10279,7 @@
     </row>
     <row r="95" spans="1:25">
       <c r="A95" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="B95" t="s">
         <v>83</v>
@@ -10285,10 +10288,10 @@
         <v>27</v>
       </c>
       <c r="D95" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="E95" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F95" t="s">
         <v>43</v>
@@ -10300,10 +10303,10 @@
         <v>32</v>
       </c>
       <c r="I95" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="J95" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="K95" t="s">
         <v>35</v>
@@ -10327,10 +10330,10 @@
         <v>32</v>
       </c>
       <c r="R95" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="S95" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="T95" t="s">
         <v>32</v>
@@ -10353,7 +10356,7 @@
     </row>
     <row r="96" spans="1:25">
       <c r="A96" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="B96" t="s">
         <v>83</v>
@@ -10362,10 +10365,10 @@
         <v>27</v>
       </c>
       <c r="D96" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="E96" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F96" t="s">
         <v>43</v>
@@ -10377,7 +10380,7 @@
         <v>32</v>
       </c>
       <c r="I96" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="J96" t="s">
         <v>69</v>
@@ -10404,13 +10407,13 @@
         <v>32</v>
       </c>
       <c r="R96" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="S96" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="T96" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="U96" t="s">
         <v>37</v>
@@ -10422,15 +10425,15 @@
         <v>32</v>
       </c>
       <c r="X96" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Y96" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
     </row>
     <row r="97" spans="1:25">
       <c r="A97" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="B97" t="s">
         <v>83</v>
@@ -10439,10 +10442,10 @@
         <v>27</v>
       </c>
       <c r="D97" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="E97" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F97" t="s">
         <v>43</v>
@@ -10454,7 +10457,7 @@
         <v>32</v>
       </c>
       <c r="I97" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="J97" t="s">
         <v>69</v>
@@ -10481,10 +10484,10 @@
         <v>32</v>
       </c>
       <c r="R97" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="S97" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="T97" t="s">
         <v>32</v>
@@ -10507,7 +10510,7 @@
     </row>
     <row r="98" spans="1:25">
       <c r="A98" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="B98" t="s">
         <v>83</v>
@@ -10516,10 +10519,10 @@
         <v>27</v>
       </c>
       <c r="D98" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="E98" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F98" t="s">
         <v>43</v>
@@ -10531,10 +10534,10 @@
         <v>32</v>
       </c>
       <c r="I98" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="J98" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="K98" t="s">
         <v>35</v>
@@ -10558,10 +10561,10 @@
         <v>32</v>
       </c>
       <c r="R98" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="S98" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="T98" t="s">
         <v>32</v>
@@ -10584,7 +10587,7 @@
     </row>
     <row r="99" spans="1:25">
       <c r="A99" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="B99" t="s">
         <v>83</v>
@@ -10593,10 +10596,10 @@
         <v>27</v>
       </c>
       <c r="D99" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="E99" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F99" t="s">
         <v>43</v>
@@ -10608,10 +10611,10 @@
         <v>32</v>
       </c>
       <c r="I99" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="J99" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="K99" t="s">
         <v>35</v>
@@ -10635,10 +10638,10 @@
         <v>32</v>
       </c>
       <c r="R99" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="S99" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="T99" t="s">
         <v>32</v>
@@ -10661,7 +10664,7 @@
     </row>
     <row r="100" spans="1:25">
       <c r="A100" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="B100" t="s">
         <v>83</v>
@@ -10670,10 +10673,10 @@
         <v>27</v>
       </c>
       <c r="D100" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="E100" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F100" t="s">
         <v>43</v>
@@ -10688,7 +10691,7 @@
         <v>32</v>
       </c>
       <c r="J100" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="K100" t="s">
         <v>35</v>
@@ -10712,10 +10715,10 @@
         <v>32</v>
       </c>
       <c r="R100" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="S100" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="T100" t="s">
         <v>32</v>
@@ -10738,7 +10741,7 @@
     </row>
     <row r="101" spans="1:25">
       <c r="A101" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="B101" t="s">
         <v>83</v>
@@ -10747,10 +10750,10 @@
         <v>27</v>
       </c>
       <c r="D101" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="E101" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F101" t="s">
         <v>43</v>
@@ -10762,7 +10765,7 @@
         <v>32</v>
       </c>
       <c r="I101" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="J101" t="s">
         <v>94</v>
@@ -10789,13 +10792,13 @@
         <v>32</v>
       </c>
       <c r="R101" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="S101" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="T101" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="U101" t="s">
         <v>37</v>
@@ -10807,15 +10810,15 @@
         <v>32</v>
       </c>
       <c r="X101" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Y101" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
     </row>
     <row r="102" spans="1:25">
       <c r="A102" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="B102" t="s">
         <v>83</v>
@@ -10824,10 +10827,10 @@
         <v>27</v>
       </c>
       <c r="D102" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="E102" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F102" t="s">
         <v>43</v>
@@ -10839,10 +10842,10 @@
         <v>32</v>
       </c>
       <c r="I102" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="J102" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="K102" t="s">
         <v>35</v>
@@ -10866,13 +10869,13 @@
         <v>32</v>
       </c>
       <c r="R102" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="S102" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="T102" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="U102" t="s">
         <v>37</v>
@@ -10884,15 +10887,15 @@
         <v>32</v>
       </c>
       <c r="X102" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Y102" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
     </row>
     <row r="103" spans="1:25">
       <c r="A103" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B103" t="s">
         <v>83</v>
@@ -10901,10 +10904,10 @@
         <v>27</v>
       </c>
       <c r="D103" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="E103" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F103" t="s">
         <v>43</v>
@@ -10916,10 +10919,10 @@
         <v>32</v>
       </c>
       <c r="I103" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="J103" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="K103" t="s">
         <v>35</v>
@@ -10940,16 +10943,16 @@
         <v>32</v>
       </c>
       <c r="Q103" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="R103" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="S103" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="T103" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="U103" t="s">
         <v>37</v>
@@ -10961,15 +10964,15 @@
         <v>32</v>
       </c>
       <c r="X103" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Y103" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
     </row>
     <row r="104" spans="1:25">
       <c r="A104" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="B104" t="s">
         <v>83</v>
@@ -10978,10 +10981,10 @@
         <v>27</v>
       </c>
       <c r="D104" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="E104" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F104" t="s">
         <v>43</v>
@@ -10993,10 +10996,10 @@
         <v>32</v>
       </c>
       <c r="I104" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="J104" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="K104" t="s">
         <v>35</v>
@@ -11014,16 +11017,16 @@
         <v>32</v>
       </c>
       <c r="P104" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q104" t="s">
         <v>32</v>
       </c>
       <c r="R104" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="S104" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="T104" t="s">
         <v>32</v>
@@ -11046,7 +11049,7 @@
     </row>
     <row r="105" spans="1:25">
       <c r="A105" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="B105" t="s">
         <v>83</v>
@@ -11055,10 +11058,10 @@
         <v>27</v>
       </c>
       <c r="D105" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="E105" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F105" t="s">
         <v>43</v>
@@ -11070,10 +11073,10 @@
         <v>32</v>
       </c>
       <c r="I105" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="J105" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="K105" t="s">
         <v>35</v>
@@ -11097,10 +11100,10 @@
         <v>32</v>
       </c>
       <c r="R105" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="S105" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="T105" t="s">
         <v>32</v>
@@ -11123,7 +11126,7 @@
     </row>
     <row r="106" spans="1:25">
       <c r="A106" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="B106" t="s">
         <v>83</v>
@@ -11132,10 +11135,10 @@
         <v>27</v>
       </c>
       <c r="D106" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="E106" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F106" t="s">
         <v>43</v>
@@ -11147,10 +11150,10 @@
         <v>32</v>
       </c>
       <c r="I106" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="J106" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="K106" t="s">
         <v>35</v>
@@ -11174,10 +11177,10 @@
         <v>32</v>
       </c>
       <c r="R106" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="S106" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="T106" t="s">
         <v>32</v>
@@ -11200,7 +11203,7 @@
     </row>
     <row r="107" spans="1:25">
       <c r="A107" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="B107" t="s">
         <v>83</v>
@@ -11209,10 +11212,10 @@
         <v>27</v>
       </c>
       <c r="D107" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="E107" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F107" t="s">
         <v>43</v>
@@ -11224,10 +11227,10 @@
         <v>32</v>
       </c>
       <c r="I107" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="J107" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="K107" t="s">
         <v>35</v>
@@ -11248,13 +11251,13 @@
         <v>32</v>
       </c>
       <c r="Q107" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="R107" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="S107" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="T107" t="s">
         <v>32</v>
@@ -11277,7 +11280,7 @@
     </row>
     <row r="108" spans="1:25">
       <c r="A108" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="B108" t="s">
         <v>83</v>
@@ -11286,10 +11289,10 @@
         <v>27</v>
       </c>
       <c r="D108" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="E108" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F108" t="s">
         <v>43</v>
@@ -11304,7 +11307,7 @@
         <v>32</v>
       </c>
       <c r="J108" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="K108" t="s">
         <v>35</v>
@@ -11322,19 +11325,19 @@
         <v>32</v>
       </c>
       <c r="P108" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="Q108" t="s">
         <v>32</v>
       </c>
       <c r="R108" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="S108" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="T108" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="U108" t="s">
         <v>32</v>
@@ -11354,7 +11357,7 @@
     </row>
     <row r="109" spans="1:25">
       <c r="A109" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="B109" t="s">
         <v>83</v>
@@ -11363,10 +11366,10 @@
         <v>27</v>
       </c>
       <c r="D109" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="E109" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F109" t="s">
         <v>43</v>
@@ -11378,10 +11381,10 @@
         <v>32</v>
       </c>
       <c r="I109" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="J109" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="K109" t="s">
         <v>35</v>
@@ -11405,10 +11408,10 @@
         <v>32</v>
       </c>
       <c r="R109" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="S109" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="T109" t="s">
         <v>32</v>
@@ -11431,7 +11434,7 @@
     </row>
     <row r="110" spans="1:25">
       <c r="A110" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="B110" t="s">
         <v>83</v>
@@ -11440,10 +11443,10 @@
         <v>27</v>
       </c>
       <c r="D110" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="E110" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F110" t="s">
         <v>43</v>
@@ -11455,10 +11458,10 @@
         <v>32</v>
       </c>
       <c r="I110" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="J110" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="K110" t="s">
         <v>35</v>
@@ -11482,10 +11485,10 @@
         <v>32</v>
       </c>
       <c r="R110" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="S110" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="T110" t="s">
         <v>32</v>
@@ -11508,7 +11511,7 @@
     </row>
     <row r="111" spans="1:25">
       <c r="A111" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="B111" t="s">
         <v>83</v>
@@ -11517,10 +11520,10 @@
         <v>27</v>
       </c>
       <c r="D111" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="E111" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F111" t="s">
         <v>43</v>
@@ -11532,10 +11535,10 @@
         <v>32</v>
       </c>
       <c r="I111" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="J111" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="K111" t="s">
         <v>35</v>
@@ -11559,13 +11562,13 @@
         <v>32</v>
       </c>
       <c r="R111" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="S111" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="T111" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="U111" t="s">
         <v>37</v>
@@ -11577,15 +11580,15 @@
         <v>32</v>
       </c>
       <c r="X111" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Y111" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
     </row>
     <row r="112" spans="1:25">
       <c r="A112" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="B112" t="s">
         <v>83</v>
@@ -11594,10 +11597,10 @@
         <v>27</v>
       </c>
       <c r="D112" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="E112" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F112" t="s">
         <v>43</v>
@@ -11609,7 +11612,7 @@
         <v>32</v>
       </c>
       <c r="I112" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="J112" t="s">
         <v>69</v>
@@ -11636,10 +11639,10 @@
         <v>32</v>
       </c>
       <c r="R112" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="S112" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="T112" t="s">
         <v>32</v>
@@ -11662,7 +11665,7 @@
     </row>
     <row r="113" spans="1:25">
       <c r="A113" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="B113" t="s">
         <v>83</v>
@@ -11671,10 +11674,10 @@
         <v>27</v>
       </c>
       <c r="D113" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="E113" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F113" t="s">
         <v>43</v>
@@ -11686,7 +11689,7 @@
         <v>32</v>
       </c>
       <c r="I113" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="J113" t="s">
         <v>69</v>
@@ -11707,16 +11710,16 @@
         <v>32</v>
       </c>
       <c r="P113" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="Q113" t="s">
         <v>32</v>
       </c>
       <c r="R113" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="S113" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="T113" t="s">
         <v>32</v>
@@ -11739,7 +11742,7 @@
     </row>
     <row r="114" spans="1:25">
       <c r="A114" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="B114" t="s">
         <v>83</v>
@@ -11748,10 +11751,10 @@
         <v>27</v>
       </c>
       <c r="D114" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="E114" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F114" t="s">
         <v>43</v>
@@ -11763,7 +11766,7 @@
         <v>32</v>
       </c>
       <c r="I114" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="J114" t="s">
         <v>69</v>
@@ -11784,16 +11787,16 @@
         <v>32</v>
       </c>
       <c r="P114" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="Q114" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="R114" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="S114" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="T114" t="s">
         <v>32</v>
@@ -11816,7 +11819,7 @@
     </row>
     <row r="115" spans="1:25">
       <c r="A115" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="B115" t="s">
         <v>83</v>
@@ -11825,10 +11828,10 @@
         <v>27</v>
       </c>
       <c r="D115" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="E115" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F115" t="s">
         <v>43</v>
@@ -11840,7 +11843,7 @@
         <v>32</v>
       </c>
       <c r="I115" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="J115" t="s">
         <v>69</v>
@@ -11864,13 +11867,13 @@
         <v>32</v>
       </c>
       <c r="Q115" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="R115" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="S115" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="T115" t="s">
         <v>32</v>
@@ -11893,7 +11896,7 @@
     </row>
     <row r="116" spans="1:25">
       <c r="A116" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="B116" t="s">
         <v>83</v>
@@ -11902,10 +11905,10 @@
         <v>27</v>
       </c>
       <c r="D116" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="E116" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F116" t="s">
         <v>43</v>
@@ -11917,7 +11920,7 @@
         <v>32</v>
       </c>
       <c r="I116" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="J116" t="s">
         <v>69</v>
@@ -11944,10 +11947,10 @@
         <v>32</v>
       </c>
       <c r="R116" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="S116" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="T116" t="s">
         <v>32</v>
@@ -11970,7 +11973,7 @@
     </row>
     <row r="117" spans="1:25">
       <c r="A117" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="B117" t="s">
         <v>83</v>
@@ -11979,10 +11982,10 @@
         <v>27</v>
       </c>
       <c r="D117" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="E117" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F117" t="s">
         <v>43</v>
@@ -11994,7 +11997,7 @@
         <v>32</v>
       </c>
       <c r="I117" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="J117" t="s">
         <v>69</v>
@@ -12021,10 +12024,10 @@
         <v>32</v>
       </c>
       <c r="R117" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="S117" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="T117" t="s">
         <v>32</v>
@@ -12047,7 +12050,7 @@
     </row>
     <row r="118" spans="1:25">
       <c r="A118" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="B118" t="s">
         <v>83</v>
@@ -12056,10 +12059,10 @@
         <v>27</v>
       </c>
       <c r="D118" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="E118" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F118" t="s">
         <v>43</v>
@@ -12071,10 +12074,10 @@
         <v>32</v>
       </c>
       <c r="I118" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="J118" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="K118" t="s">
         <v>35</v>
@@ -12098,13 +12101,13 @@
         <v>32</v>
       </c>
       <c r="R118" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="S118" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="T118" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="U118" t="s">
         <v>37</v>
@@ -12116,15 +12119,15 @@
         <v>32</v>
       </c>
       <c r="X118" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Y118" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
     </row>
     <row r="119" spans="1:25">
       <c r="A119" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="B119" t="s">
         <v>83</v>
@@ -12133,10 +12136,10 @@
         <v>27</v>
       </c>
       <c r="D119" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="E119" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F119" t="s">
         <v>43</v>
@@ -12148,10 +12151,10 @@
         <v>32</v>
       </c>
       <c r="I119" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="J119" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="K119" t="s">
         <v>35</v>
@@ -12175,13 +12178,13 @@
         <v>32</v>
       </c>
       <c r="R119" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="S119" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="T119" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="U119" t="s">
         <v>37</v>
@@ -12193,15 +12196,15 @@
         <v>32</v>
       </c>
       <c r="X119" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Y119" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
     </row>
     <row r="120" spans="1:25">
       <c r="A120" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="B120" t="s">
         <v>83</v>
@@ -12210,10 +12213,10 @@
         <v>27</v>
       </c>
       <c r="D120" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="E120" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F120" t="s">
         <v>43</v>
@@ -12225,10 +12228,10 @@
         <v>32</v>
       </c>
       <c r="I120" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="J120" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="K120" t="s">
         <v>35</v>
@@ -12252,10 +12255,10 @@
         <v>32</v>
       </c>
       <c r="R120" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="S120" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="T120" t="s">
         <v>32</v>
@@ -12278,7 +12281,7 @@
     </row>
     <row r="121" spans="1:25">
       <c r="A121" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="B121" t="s">
         <v>83</v>
@@ -12287,10 +12290,10 @@
         <v>27</v>
       </c>
       <c r="D121" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="E121" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F121" t="s">
         <v>43</v>
@@ -12302,7 +12305,7 @@
         <v>32</v>
       </c>
       <c r="I121" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="J121" t="s">
         <v>69</v>
@@ -12329,10 +12332,10 @@
         <v>32</v>
       </c>
       <c r="R121" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="S121" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="T121" t="s">
         <v>32</v>
@@ -12355,7 +12358,7 @@
     </row>
     <row r="122" spans="1:25">
       <c r="A122" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="B122" t="s">
         <v>83</v>
@@ -12364,10 +12367,10 @@
         <v>27</v>
       </c>
       <c r="D122" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="E122" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F122" t="s">
         <v>43</v>
@@ -12379,7 +12382,7 @@
         <v>32</v>
       </c>
       <c r="I122" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="J122" t="s">
         <v>69</v>
@@ -12406,10 +12409,10 @@
         <v>32</v>
       </c>
       <c r="R122" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="S122" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="T122" t="s">
         <v>32</v>
@@ -12432,7 +12435,7 @@
     </row>
     <row r="123" spans="1:25">
       <c r="A123" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="B123" t="s">
         <v>83</v>
@@ -12441,10 +12444,10 @@
         <v>27</v>
       </c>
       <c r="D123" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="E123" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F123" t="s">
         <v>43</v>
@@ -12456,7 +12459,7 @@
         <v>32</v>
       </c>
       <c r="I123" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="J123" t="s">
         <v>69</v>
@@ -12477,16 +12480,16 @@
         <v>32</v>
       </c>
       <c r="P123" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q123" t="s">
         <v>32</v>
       </c>
       <c r="R123" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="S123" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="T123" t="s">
         <v>32</v>
@@ -12509,7 +12512,7 @@
     </row>
     <row r="124" spans="1:25">
       <c r="A124" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="B124" t="s">
         <v>83</v>
@@ -12518,10 +12521,10 @@
         <v>27</v>
       </c>
       <c r="D124" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="E124" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F124" t="s">
         <v>43</v>
@@ -12533,10 +12536,10 @@
         <v>32</v>
       </c>
       <c r="I124" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="J124" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="K124" t="s">
         <v>35</v>
@@ -12560,10 +12563,10 @@
         <v>32</v>
       </c>
       <c r="R124" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="S124" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="T124" t="s">
         <v>32</v>
@@ -12586,7 +12589,7 @@
     </row>
     <row r="125" spans="1:25">
       <c r="A125" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="B125" t="s">
         <v>83</v>
@@ -12595,10 +12598,10 @@
         <v>27</v>
       </c>
       <c r="D125" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="E125" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F125" t="s">
         <v>43</v>
@@ -12610,10 +12613,10 @@
         <v>32</v>
       </c>
       <c r="I125" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="J125" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="K125" t="s">
         <v>35</v>
@@ -12637,13 +12640,13 @@
         <v>32</v>
       </c>
       <c r="R125" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="S125" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="T125" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="U125" t="s">
         <v>37</v>
@@ -12655,15 +12658,15 @@
         <v>32</v>
       </c>
       <c r="X125" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="Y125" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
     </row>
     <row r="126" spans="1:25">
       <c r="A126" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="B126" t="s">
         <v>83</v>
@@ -12672,25 +12675,25 @@
         <v>27</v>
       </c>
       <c r="D126" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="E126" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="F126" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="G126" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="H126" t="s">
         <v>32</v>
       </c>
       <c r="I126" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="J126" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="K126" t="s">
         <v>35</v>
@@ -12714,10 +12717,10 @@
         <v>32</v>
       </c>
       <c r="R126" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="S126" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="T126" t="s">
         <v>32</v>
@@ -12732,15 +12735,15 @@
         <v>32</v>
       </c>
       <c r="X126" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Y126" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
     </row>
     <row r="127" spans="1:25">
       <c r="A127" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="B127" t="s">
         <v>26</v>
@@ -12749,16 +12752,16 @@
         <v>27</v>
       </c>
       <c r="D127" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="E127" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="F127" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="G127" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="H127" t="s">
         <v>32</v>
@@ -12767,7 +12770,7 @@
         <v>32</v>
       </c>
       <c r="J127" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="K127" t="s">
         <v>35</v>
@@ -12788,10 +12791,10 @@
         <v>32</v>
       </c>
       <c r="Q127" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="R127" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="S127" t="s">
         <v>32</v>
@@ -12809,15 +12812,15 @@
         <v>32</v>
       </c>
       <c r="X127" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="Y127" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
     </row>
     <row r="128" spans="1:25">
       <c r="A128" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B128" t="s">
         <v>26</v>
@@ -12826,13 +12829,13 @@
         <v>27</v>
       </c>
       <c r="D128" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="E128" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="F128" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="G128" t="s">
         <v>31</v>
@@ -12841,10 +12844,10 @@
         <v>32</v>
       </c>
       <c r="I128" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="J128" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="K128" t="s">
         <v>35</v>
@@ -12865,10 +12868,10 @@
         <v>32</v>
       </c>
       <c r="Q128" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="R128" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="S128" t="s">
         <v>32</v>
@@ -12894,7 +12897,7 @@
     </row>
     <row r="129" spans="1:25">
       <c r="A129" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B129" t="s">
         <v>26</v>
@@ -12903,25 +12906,25 @@
         <v>27</v>
       </c>
       <c r="D129" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="E129" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="F129" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="G129" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="H129" t="s">
         <v>32</v>
       </c>
       <c r="I129" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="J129" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="K129" t="s">
         <v>35</v>
@@ -12939,13 +12942,13 @@
         <v>32</v>
       </c>
       <c r="P129" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q129" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="R129" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="S129" t="s">
         <v>32</v>
@@ -12971,7 +12974,7 @@
     </row>
     <row r="130" spans="1:25">
       <c r="A130" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="B130" t="s">
         <v>26</v>
@@ -12980,22 +12983,22 @@
         <v>27</v>
       </c>
       <c r="D130" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="E130" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="F130" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="G130" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="H130" t="s">
         <v>32</v>
       </c>
       <c r="I130" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="J130" t="s">
         <v>77</v>
@@ -13019,10 +13022,10 @@
         <v>32</v>
       </c>
       <c r="Q130" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="R130" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="S130" t="s">
         <v>32</v>
@@ -13048,7 +13051,7 @@
     </row>
     <row r="131" spans="1:25">
       <c r="A131" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="B131" t="s">
         <v>26</v>
@@ -13057,13 +13060,13 @@
         <v>27</v>
       </c>
       <c r="D131" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="E131" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="F131" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="G131" t="s">
         <v>52</v>
@@ -13072,10 +13075,10 @@
         <v>32</v>
       </c>
       <c r="I131" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="J131" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="K131" t="s">
         <v>35</v>
@@ -13096,10 +13099,10 @@
         <v>32</v>
       </c>
       <c r="Q131" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="R131" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="S131" t="s">
         <v>32</v>
@@ -13125,7 +13128,7 @@
     </row>
     <row r="132" spans="1:25">
       <c r="A132" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="B132" t="s">
         <v>26</v>
@@ -13134,13 +13137,13 @@
         <v>27</v>
       </c>
       <c r="D132" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="E132" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="F132" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="G132" t="s">
         <v>52</v>
@@ -13149,10 +13152,10 @@
         <v>32</v>
       </c>
       <c r="I132" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="J132" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="K132" t="s">
         <v>35</v>
@@ -13176,7 +13179,7 @@
         <v>32</v>
       </c>
       <c r="R132" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="S132" t="s">
         <v>32</v>
@@ -13194,15 +13197,15 @@
         <v>32</v>
       </c>
       <c r="X132" t="s">
-        <v>129</v>
+        <v>97</v>
       </c>
       <c r="Y132" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
     </row>
     <row r="133" spans="1:25">
       <c r="A133" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="B133" t="s">
         <v>26</v>
@@ -13211,16 +13214,16 @@
         <v>27</v>
       </c>
       <c r="D133" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="E133" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="F133" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="G133" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="H133" t="s">
         <v>32</v>
@@ -13229,7 +13232,7 @@
         <v>32</v>
       </c>
       <c r="J133" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="K133" t="s">
         <v>35</v>
@@ -13250,10 +13253,10 @@
         <v>32</v>
       </c>
       <c r="Q133" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="R133" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="S133" t="s">
         <v>32</v>
@@ -13279,7 +13282,7 @@
     </row>
     <row r="134" spans="1:25">
       <c r="A134" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="B134" t="s">
         <v>26</v>
@@ -13288,13 +13291,13 @@
         <v>27</v>
       </c>
       <c r="D134" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="E134" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="F134" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="G134" t="s">
         <v>52</v>
@@ -13303,10 +13306,10 @@
         <v>32</v>
       </c>
       <c r="I134" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="J134" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="K134" t="s">
         <v>35</v>
@@ -13327,10 +13330,10 @@
         <v>32</v>
       </c>
       <c r="Q134" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="R134" t="s">
-        <v>856</v>
+        <v>857</v>
       </c>
       <c r="S134" t="s">
         <v>32</v>
@@ -13356,7 +13359,7 @@
     </row>
     <row r="135" spans="1:25">
       <c r="A135" t="s">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="B135" t="s">
         <v>83</v>
@@ -13365,10 +13368,10 @@
         <v>27</v>
       </c>
       <c r="D135" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="E135" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="F135" t="s">
         <v>43</v>
@@ -13380,10 +13383,10 @@
         <v>32</v>
       </c>
       <c r="I135" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="J135" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="K135" t="s">
         <v>35</v>
@@ -13404,16 +13407,16 @@
         <v>32</v>
       </c>
       <c r="Q135" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="R135" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="S135" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="T135" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="U135" t="s">
         <v>37</v>
@@ -13425,15 +13428,15 @@
         <v>32</v>
       </c>
       <c r="X135" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="Y135" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
     </row>
     <row r="136" spans="1:25">
       <c r="A136" t="s">
-        <v>866</v>
+        <v>867</v>
       </c>
       <c r="B136" t="s">
         <v>26</v>
@@ -13442,10 +13445,10 @@
         <v>27</v>
       </c>
       <c r="D136" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="E136" t="s">
-        <v>868</v>
+        <v>869</v>
       </c>
       <c r="F136" t="s">
         <v>43</v>
@@ -13460,7 +13463,7 @@
         <v>32</v>
       </c>
       <c r="J136" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="K136" t="s">
         <v>35</v>
@@ -13484,7 +13487,7 @@
         <v>32</v>
       </c>
       <c r="R136" t="s">
-        <v>869</v>
+        <v>870</v>
       </c>
       <c r="S136" t="s">
         <v>32</v>
@@ -13510,7 +13513,7 @@
     </row>
     <row r="137" spans="1:25">
       <c r="A137" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="B137" t="s">
         <v>26</v>
@@ -13519,10 +13522,10 @@
         <v>27</v>
       </c>
       <c r="D137" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="E137" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="F137" t="s">
         <v>43</v>
@@ -13537,7 +13540,7 @@
         <v>32</v>
       </c>
       <c r="J137" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="K137" t="s">
         <v>35</v>
@@ -13561,7 +13564,7 @@
         <v>32</v>
       </c>
       <c r="R137" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="S137" t="s">
         <v>32</v>
@@ -13587,7 +13590,7 @@
     </row>
     <row r="138" spans="1:25">
       <c r="A138" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="B138" t="s">
         <v>26</v>
@@ -13596,16 +13599,16 @@
         <v>27</v>
       </c>
       <c r="D138" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="E138" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="F138" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="G138" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="H138" t="s">
         <v>32</v>
@@ -13614,7 +13617,7 @@
         <v>32</v>
       </c>
       <c r="J138" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="K138" t="s">
         <v>35</v>
@@ -13638,7 +13641,7 @@
         <v>32</v>
       </c>
       <c r="R138" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="S138" t="s">
         <v>32</v>
@@ -13664,7 +13667,7 @@
     </row>
     <row r="139" spans="1:25">
       <c r="A139" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="B139" t="s">
         <v>83</v>
@@ -13673,28 +13676,28 @@
         <v>27</v>
       </c>
       <c r="D139" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="E139" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
       <c r="F139" t="s">
         <v>43</v>
       </c>
       <c r="G139" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="H139" t="s">
         <v>32</v>
       </c>
       <c r="I139" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="J139" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="K139" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="L139" t="s">
         <v>32</v>
@@ -13715,13 +13718,13 @@
         <v>32</v>
       </c>
       <c r="R139" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="S139" t="s">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="T139" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="U139" t="s">
         <v>37</v>
@@ -13733,15 +13736,15 @@
         <v>32</v>
       </c>
       <c r="X139" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
       <c r="Y139" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
     </row>
     <row r="140" spans="1:25">
       <c r="A140" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
       <c r="B140" t="s">
         <v>26</v>
@@ -13750,25 +13753,25 @@
         <v>27</v>
       </c>
       <c r="D140" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
       <c r="E140" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="F140" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="G140" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="H140" t="s">
         <v>32</v>
       </c>
       <c r="I140" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
       <c r="J140" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
       <c r="K140" t="s">
         <v>35</v>
@@ -13789,10 +13792,10 @@
         <v>32</v>
       </c>
       <c r="Q140" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="R140" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="S140" t="s">
         <v>32</v>
